--- a/Test Data/Verify DC Units Calculation for FIM.xlsx
+++ b/Test Data/Verify DC Units Calculation for FIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C52D9-292E-4607-BEE3-54F7DAE5BCA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DAC02E-C83B-488F-BA6D-EBBF40F0FA59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>Device</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>NGC-1193</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,6 +631,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
@@ -635,6 +647,9 @@
       </c>
       <c r="B2" s="7">
         <v>339.5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>31</v>
@@ -658,6 +673,9 @@
       </c>
       <c r="B3" s="7">
         <v>220</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
@@ -907,7 +925,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,6 +946,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
@@ -943,6 +964,9 @@
       <c r="B2" s="7">
         <v>339.5</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
@@ -963,6 +987,9 @@
       </c>
       <c r="B3" s="7">
         <v>259.3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
@@ -1208,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3DB159-7957-456A-BFAE-AF9F884D76FA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,17 +1246,21 @@
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -1240,8 +1271,11 @@
         <v>18</v>
       </c>
       <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -1252,8 +1286,11 @@
       <c r="D3" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
@@ -1265,13 +1302,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -1287,7 +1324,7 @@
         <v>339.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1301,6 +1338,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1385,6 +1423,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1474,5 +1513,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify DC Units Calculation for FIM.xlsx
+++ b/Test Data/Verify DC Units Calculation for FIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DAC02E-C83B-488F-BA6D-EBBF40F0FA59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F1F2F4-26A3-4110-9AA6-0F6A0B2785CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="61">
   <si>
     <t>Device</t>
   </si>
@@ -190,9 +190,6 @@
     <t xml:space="preserve">DC Units on changing Panel LED for Loop A </t>
   </si>
   <si>
-    <t>NGC-1193</t>
-  </si>
-  <si>
     <t>DC Unit Loading Details Name</t>
   </si>
   <si>
@@ -200,6 +197,27 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>NGC-494/T415 OR TC-163</t>
   </si>
 </sst>
 </file>
@@ -611,7 +629,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>19</v>
@@ -640,16 +658,22 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
+      <c r="H1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7">
-        <v>339.5</v>
+        <v>324</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>31</v>
@@ -661,7 +685,12 @@
         <v>18</v>
       </c>
       <c r="G2" s="21"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="11" t="s">
         <v>19</v>
@@ -675,7 +704,7 @@
         <v>220</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
@@ -687,7 +716,9 @@
       <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="H3" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -698,14 +729,16 @@
       <c r="D4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>51</v>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="H4" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -719,7 +752,9 @@
       <c r="G5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -924,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +982,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>19</v>
@@ -955,6 +990,12 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
+      <c r="H1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -962,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="7">
-        <v>339.5</v>
+        <v>324</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>31</v>
@@ -977,7 +1018,12 @@
         <v>18</v>
       </c>
       <c r="G2" s="21"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="11"/>
     </row>
@@ -986,10 +1032,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="7">
-        <v>259.3</v>
+        <v>283</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
@@ -1001,7 +1047,9 @@
       <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="H3" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
     </row>
@@ -1013,14 +1061,16 @@
       <c r="D4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>51</v>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="H4" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
     </row>
@@ -1035,7 +1085,9 @@
       <c r="G5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
@@ -1235,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3DB159-7957-456A-BFAE-AF9F884D76FA}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1301,7 @@
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
@@ -1257,10 +1309,16 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="F1" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -1272,10 +1330,16 @@
       </c>
       <c r="D2" s="21"/>
       <c r="F2" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -1287,28 +1351,37 @@
         <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -1316,20 +1389,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>339.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>339.5</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E77D382-4FAA-4C71-AC0B-5D59B2C5C9EE}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,15 +1430,21 @@
     <col min="4" max="4" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -1376,8 +1455,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -1388,31 +1473,40 @@
       <c r="D3" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1429,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AB1C03-A7B2-45CB-9019-EA794D0C20EA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,15 +1536,21 @@
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -1461,8 +1561,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -1473,36 +1579,45 @@
       <c r="D3" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
